--- a/biology/Botanique/Jasione_des_montagnes/Jasione_des_montagnes.xlsx
+++ b/biology/Botanique/Jasione_des_montagnes/Jasione_des_montagnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jasione montana
 La Jasione des montagnes (Jasione montana) est une plante herbacée annuelle ou bisannuelle de la famille des Campanulacées.
@@ -513,12 +525,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Haute de 5 à 50 cm, elle n'émet pas de stolons.
-Caractéristiques
-Organes reproducteurs
-La floraison a lieu de mai à septembre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haute de 5 à 50 cm, elle n'émet pas de stolons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jasione_des_montagnes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasione_des_montagnes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
+La floraison a lieu de mai à septembre.
 Couleur dominante des fleurs : bleu
 Inflorescence : capitule simple
 Sexualité : hermaphrodite
@@ -529,7 +578,7 @@
 Dissémination : épizoochore
 Habitat et répartition
 Habitat type : pelouses vivaces des lithosols compacts (dalles) et mobiles (sables), acidophiles, médioeuropéennes, planitiaires-collinéennes
-Aire de répartition : atlantique[2], région méditerranéenne[3].</t>
+Aire de répartition : atlantique, région méditerranéenne.</t>
         </is>
       </c>
     </row>
